--- a/data/10000087.xlsx
+++ b/data/10000087.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wind\Wind金融终端\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\OAApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>成交量(股)</t>
-  </si>
-  <si>
-    <t>数据来源:Wind资讯</t>
   </si>
 </sst>
 </file>
@@ -426,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3160" workbookViewId="0">
+      <selection activeCell="A3185" sqref="A3185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -73646,9 +73643,7 @@
       </c>
     </row>
     <row r="3185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3185" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3185" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
